--- a/medicine/Pharmacie/Galantamine/Galantamine.xlsx
+++ b/medicine/Pharmacie/Galantamine/Galantamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La galantamine est un parasympathomimétique indirect appartenant à la classe thérapeutique des inhibiteurs de la cholinestérase. Elle n'appartient pas à la famille des stigmines.
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La galantamine inhibe de façon réversible et compétitive l'acétylcholinestérase. Elle potentialise l'action de l'acétylcholine en empêchant sa dégradation dans la fente synaptique. Elle a donc une action parasympathomimétique indirecte puisqu'elle potentialise l'action du système nerveux parasympathique tout en ne se fixant pas aux récepteurs membranaires.
 </t>
@@ -543,9 +557,11 @@
           <t>Usage thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La galantamine, commercialisée sous le nom de Réminyl par le laboratoire Janssen Cilag, est utilisée pour traiter les formes légères à modérées de la maladie d'Alzheimer en en améliorant les symptômes[2] mais pas la dégradation des fonctions supérieures[3]. Elle est disponible sous plusieurs formes et dosages[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La galantamine, commercialisée sous le nom de Réminyl par le laboratoire Janssen Cilag, est utilisée pour traiter les formes légères à modérées de la maladie d'Alzheimer en en améliorant les symptômes mais pas la dégradation des fonctions supérieures. Elle est disponible sous plusieurs formes et dosages :
 Réminyl® 4 mg·mL-1 en solution buvable ;
 Réminyl® 4 mg en comprimé pelliculé ;
 Réminyl® 8 mg en comprimé pelliculé ;
@@ -553,7 +569,7 @@
 Réminyl LP® 8 mg en gélule à libération prolongée ;
 Réminyl LP® 16 mg en gélule à libération prolongée ;
 Réminyl LP® 24 mg en gélule à libération prolongée.
-Il est disponible également, aux États-Unis, en tant que complément alimentaire[5].
+Il est disponible également, aux États-Unis, en tant que complément alimentaire.
 </t>
         </is>
       </c>
@@ -582,14 +598,16 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nausées et vomissements (activation muscarinique), notamment chez la femme.
 Troubles digestifs (augmentation du péristaltisme intestinal conduisant à des diarrhées).
 Douleurs abdominales, consécutives aux crampes musculaires intestinales.
 Céphalées.
 Fatigue et somnolence.
-D'après la revue indépendante Prescrire, le rapport bénéfice-risque est défavorable[6].
+D'après la revue indépendante Prescrire, le rapport bénéfice-risque est défavorable.
 </t>
         </is>
       </c>
